--- a/外部設計/資料/技術資料.xlsx
+++ b/外部設計/資料/技術資料.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="10155"/>
   </bookViews>
   <sheets>
-    <sheet name="円弧配置" sheetId="1" r:id="rId1"/>
+    <sheet name="VBプロジェクト" sheetId="2" r:id="rId1"/>
+    <sheet name="円弧配置" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>編集文字のピクチャー</t>
     <rPh sb="0" eb="2">
@@ -554,12 +555,938 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>GlobalSection(TeamFoundationVersionControl) = preSolution</t>
+  </si>
+  <si>
+    <t>SccNumberOfProjects = 5</t>
+  </si>
+  <si>
+    <t>SccEnterpriseProvider = {4CA58AB2-18FA-4F8D-95D4-32DDF27D184C}</t>
+  </si>
+  <si>
+    <t>SccTeamFoundationServer = http://ihtf11:8080/tfs/acad_project</t>
+  </si>
+  <si>
+    <t>SccLocalPath0 = .</t>
+  </si>
+  <si>
+    <t>SccProjectUniqueName1 = BrandVB1.vbproj</t>
+  </si>
+  <si>
+    <t>SccLocalPath1 = .</t>
+  </si>
+  <si>
+    <t>SccProjectUniqueName2 = BrandVB2.vbproj</t>
+  </si>
+  <si>
+    <t>SccLocalPath2 = .</t>
+  </si>
+  <si>
+    <t>SccProjectUniqueName3 = BrandVB3.vbproj</t>
+  </si>
+  <si>
+    <t>SccLocalPath3 = .</t>
+  </si>
+  <si>
+    <t>SccProjectUniqueName4 = BrandVB4.vbproj</t>
+  </si>
+  <si>
+    <t>SccLocalPath4 = .</t>
+  </si>
+  <si>
+    <t>EndGlobalSection</t>
+  </si>
+  <si>
+    <t>Textエディタでソリューションファイル（BrandVB.sln）の以下のセクションを削除する。</t>
+    <rPh sb="34" eb="36">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://go.microsoft.com/fwlink/?LinkId=321343</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. ソース管理のバインドを無効にする。</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. VS2019でビルドを通す。</t>
+    <rPh sb="14" eb="15">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（1）「Microsoft.VisualBasic.PowerPacks.LineShape」が見つからない</t>
+    <rPh sb="48" eb="49">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のビルドエラーに対処する。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソリューション起動時のソース管理エラーに対処する。</t>
+    <rPh sb="7" eb="10">
+      <t>キドウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ダウンロード」フォルダにダウンロードされる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Visual Studioを閉じた状態で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ダウンロードした「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vb_vbpowerpacks.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を実行する。</t>
+    </r>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>以下のサイトにアクセスするだけで「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vb_vbpowerpacks.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」が</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Visual Studioを開き、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BrandVB1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BrandVB4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のプロジェクトの参照に</t>
+    </r>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microsoft.VisualBasic.PowerPacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を追加する。</t>
+    </r>
+    <rPh sb="35" eb="37">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」ボタンを押下する。</t>
+    </r>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参照の追加で「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>アセンブリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」－「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拡張</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」から「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microsoft.VisualBasic.PowerPacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」にチェックを入れて</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 旧参照「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microsoft.VisualBasic.PowerPacks.VS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を削除する。</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microsoft.VisualBasic.PowerPacks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」が追加される。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>表示し「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>アイテムの選択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」を選択する。</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」ボタンを押下する。</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  「Microsoft.VisualBasic.PowerPacks 12.0」のパッケージダウンロード</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> パッケージのインストール。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>③</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 参照の追加</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">④ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ツールボックスに「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LineShape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」コントロールを追加する。</t>
+    </r>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ツールボックスウィンドウ内でマウス右クリックでプロパティを</t>
+    </r>
+    <rPh sb="16" eb="17">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.NET Frameworkコンポーネント</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」タブで「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LineShape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」にチェックを入れ</t>
+    </r>
+    <rPh sb="46" eb="47">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VB6.TextBoxArray</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VB6.Format(srh_cnt)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VB6.TwipsToPixelsX()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Warning]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VB6.PixelsToTwipsX()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VB6.PixelsToTwipsY()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VB6.TwipsToPixelsY()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VB6.GetItemString(w_hikaku, 0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（3）Remote Data Objects (RDO)が非対応</t>
+    <rPh sb="29" eb="32">
+      <t>ヒタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDOでのDBアクセス部分をADO.NETに変更する。</t>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VB6.FixedLengthString(6)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDO.rdoConnection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft.Data.Odbc.OdbcConnection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 接続および切断</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 接続文字列を指定して、OdbcConnectionオブジェクトを生成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. OdbcConnection.Openメソッドでコネクションを接続</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. OdbcConnection.Closeメソッドでコネクションを切断</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. オブジェクトを破棄</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +1519,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -610,12 +1546,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -628,8 +1567,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -652,6 +1598,645 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>339057</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628776" y="16525876"/>
+          <a:ext cx="6701756" cy="3228974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>507546</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="8334376"/>
+          <a:ext cx="2374446" cy="3324224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>227342</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1543050" y="13201651"/>
+          <a:ext cx="3865892" cy="2428874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>91086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9820275" y="16516351"/>
+          <a:ext cx="3790950" cy="2386610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="右矢印 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5229225" y="22336125"/>
+          <a:ext cx="790575" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1524000" y="20955000"/>
+          <a:ext cx="3009900" cy="2962275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>197540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924675" y="20983575"/>
+          <a:ext cx="4886325" cy="3502715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="右矢印 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8391525" y="17687925"/>
+          <a:ext cx="790575" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="27479624"/>
+          <a:ext cx="6276975" cy="3962401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>オブジェクト宣言 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Dim con As Microsoft.Data.Odbc.OdbcConnection</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> '1. OdbcConnection</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>オブジェクトの生成</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>con = New Microsoft.Data.Odbc.OdbcConnection("DSN=DSN01;UID=USER01;PWD=PASS01") </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Try</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>     '2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>コネクション接続</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    con.Open()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>     '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>メッセージボックスの表示</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>MessageBox.Show("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>接続できました</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>", "Connect", _</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>              MessageBoxButtons.OK, MessageBoxIcon.None) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    '3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>コネクション切断</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>con.Close()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>     '4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>オブジェクトの破棄</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>con.Dispose()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>     '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>エラー処理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Catch ex As Microsoft.Data.Odbc.OdbcException</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>     '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>エラー処理ルーチンを記述 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>End Try</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5148,9 +6733,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="S126" sqref="S126"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="3.875" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="5" width="3.75" customWidth="1"/>
+    <col min="6" max="6" width="2.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B4" s="1"/>
+      <c r="R4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="R6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C25" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E31" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E34" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D51" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E55" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="E68" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="F69" t="s">
+        <v>69</v>
+      </c>
+      <c r="R69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D86" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="E87" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="F88" t="s">
+        <v>73</v>
+      </c>
+      <c r="N88" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C105" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="D106" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="D108" t="s">
+        <v>92</v>
+      </c>
+      <c r="I108" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="D110" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="D112" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D113" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D114" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D115" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E31" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD70" sqref="AD70"/>
     </sheetView>
   </sheetViews>

--- a/外部設計/資料/技術資料.xlsx
+++ b/外部設計/資料/技術資料.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="10155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="10155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VBプロジェクト" sheetId="2" r:id="rId1"/>
-    <sheet name="円弧配置" sheetId="1" r:id="rId2"/>
+    <sheet name="VBプロジェクト2" sheetId="3" r:id="rId2"/>
+    <sheet name="円弧配置" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="126">
   <si>
     <t>編集文字のピクチャー</t>
     <rPh sb="0" eb="2">
@@ -1432,53 +1433,235 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RDO.rdoConnection</t>
+    <t>1. rdoEnvironmentオブジェクトを生成</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Microsoft.Data.Odbc.OdbcConnection</t>
+    <t>2. rdoEnvironment.OpenConnectionメソッドでコネクションを接続しrdoConnectionオブジェクトを生成</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>OpenConnectionメソッドの第1引数にデータソース名を、第4引数に認可識別子・パスワードを指定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>＜</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>①</t>
+      <t>RDO</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 接続および切断</t>
+      <t>＞</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1. 接続文字列を指定して、OdbcConnectionオブジェクトを生成</t>
+    <r>
+      <t>＜</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADO.NET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>＞</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2. OdbcConnection.Openメソッドでコネクションを接続</t>
+    <t>6. rdoConnection.Closeメソッドでコネクションを切断</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3. OdbcConnection.Closeメソッドでコネクションを切断</t>
+    <t>7. オブジェクトを破棄</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4. オブジェクトを破棄</t>
+    <t>3. rdoConnection.OpenResultsetメソッドでrdoResultsetオブジェクトを生成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. rdoResultsetオブジェクトよりデータを取得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rdoResultset.EOFプロパティでカレント行がEOFかを確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rdoColumns.Countプロパティで列数を確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rdoColumn.Valueプロパティでデータを取得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rdoResultset.MoveNextメソッドでカレント行を次の行へと移動</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5. rdoResultset.CloseメソッドでrdoResultsetオブジェクトを閉じる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>① 接続・データ参照・切断</t>
+    <rPh sb="8" eb="10">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 接続文字列を指定して、SqlConnectionオブジェクトを生成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. ConnectionStringプロパティにデータベース情報を設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     "Data Source =SQLサーバ名;Initial Catalog =DB名;User ID=ユーザID;Password=パスワード" を指定</t>
+    <rPh sb="25" eb="26">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. SQLクライアントインポート宣言
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10. オブジェクトを破棄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. SqlConnection.Openメソッドでコネクションを接続</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9. SqlConnection.Closeメソッドでコネクションを切断</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8. 全レコード表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7. 実行結果をSqlDataReader型の変数「dread」に代入</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6. レコードを抽出するSQL文をCommandTextプロパティに設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5. SqlCommandクラスのインスタンス化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>② レコード件数取得</t>
+    <rPh sb="6" eb="8">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルより抽出したレコード件数を取得する</t>
+    <rPh sb="6" eb="8">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③ レコード追加</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルにレコードを追加する</t>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④ レコード削除</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルのレコードを削除する</t>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤ レコード更新</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルのレコードを更新する</t>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1486,7 +1669,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1528,6 +1711,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1554,7 +1762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1572,6 +1780,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1986,28 +2203,33 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952500" y="27479624"/>
-          <a:ext cx="6276975" cy="3962401"/>
+          <a:off x="1000125" y="4600574"/>
+          <a:ext cx="6877050" cy="9486901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2047,20 +2269,54 @@
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>オブジェクト宣言 </a:t>
+            <a:t>オブジェクト宣言</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP"/>
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>Dim con As Microsoft.Data.Odbc.OdbcConnection</a:t>
+            <a:t>Dim Env As rdoEnvironment</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t> '1. OdbcConnection</a:t>
+            <a:t> Dim Con As rdoConnection</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> Dim Rst As rdoResultset</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Dim i As Integer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Dim msgstr As String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> '1. rdoEnvironment</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
@@ -2070,20 +2326,743 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Set Env = rdoEngine.rdoEnvironments(0)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> On Error GoTo ErrorProc</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> '2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>コネクション接続</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Set Con = Env.OpenConnection("DSN01", rdDriverNoPrompt, _ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>                                                            False, "UID=USER01;PWD=PASS01;")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>'3. rdoResultset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>オブジェクトの生成</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Set Rst = Con.OpenResultset("SELECT * FROM TESTTBL", _</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>                                                      rdOpenForwardOnly, _</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>                                                      rdConcurReadOnly, _</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>                                                      rdExecDirect)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>'4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>データの取得</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>'EOF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>まで繰り返し</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Do Until Rst.EOF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>        '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>列数の取得</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>        For i = 0 To Rst.rdoColumns.Count - 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>                  '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>データの取得</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>                  msgstr = msgstr &amp; Rst.rdoColumns(i).Value &amp; " "</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>         Next</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>         '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>行の位置づけ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>         Rst.MoveNext</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>         '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>メッセージボックスの表示</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>         MsgBox msgstr, vbOKOnly, "Resultset"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Loop</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>'5. rdoResultset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>オブジェクトを閉じる</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Rst.Close</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> '6. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>コネクション切断</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Con.Close</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> '7. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>オブジェクトの破棄</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Set Con = Nothing Set</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> Env = Nothing Exit Sub</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>エラー処理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>ErrorProc:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>     '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>エラー処理ルーチンを記述</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>238122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8591550" y="4591047"/>
+          <a:ext cx="6191249" cy="10153653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>'1. SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>クライアントインポート宣言</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Imports System.Data.SqlClient</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>オブジェクト宣言 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dim conn As SqlConnection</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dim dset As DataSet = New DataSet()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dim dread As SqlClient.SqlDataReader</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dim serverName As String = "P-215\IHDB66"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dim dataBase As String = "brand"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dim</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>userid As String = "brand_vb"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dim pwd As String = "brandvb"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
             <a:t>con = New Microsoft.Data.Odbc.OdbcConnection("DSN=DSN01;UID=USER01;PWD=PASS01") </a:t>
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
             <a:t>Try</a:t>
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   '2. SqlConnection</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>オブジェクトの生成</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>     '2. </a:t>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>conn = New SqlConnection()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ConnectionString</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>プロパティにデータベース情報を設定</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     conn.ConnectionString =</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                    " Data Source = " &amp; serverName &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                    ";Initial Catalog = " &amp; dataBase &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                    ";User ID = " &amp; userid &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                    ";Password =" &amp; pwd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>     '4. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
@@ -2094,17 +3073,40 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>    con.Open()</a:t>
-          </a:r>
+            <a:t>    conn.Open()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>     '</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>メッセージボックスの表示</a:t>
+            <a:t>     '5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SqlCommand</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>クラスのインスタンス化</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP"/>
         </a:p>
@@ -2118,28 +3120,569 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Using cmd As New SqlClient.SqlCommand()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          ’</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>レコードを抽出する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CommandText</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>プロパティに設定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cmd.Connection = conn</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cmd.CommandText =</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                            "SELECT * " &amp; ControlChars.NewLine &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                            "FROM " &amp; " gm_kanri</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>" &amp; ControlChars.NewLine</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>            ’</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>MessageBox.Show("</a:t>
+            <a:t>7.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>接続できました</a:t>
-          </a:r>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>実行結果を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SqlDataReader</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>型の変数「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dread</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」に代入</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dread = cmd.ExecuteReader()</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>", "Connect", _</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>      </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>              MessageBoxButtons.OK, MessageBoxIcon.None) </a:t>
-          </a:r>
+            <a:t>'8. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>全レコード表示</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            Dim i As</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Integer = 0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>    '3. </a:t>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Do While dread.Read()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>For i As Integer = 0 To 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                       Console.Write(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dread.GetString(i)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> &amp; " ")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                   Next</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                   Console.WriteLine("")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            Loop</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>End</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Using</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>       '9. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
@@ -2150,7 +3693,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>    </a:t>
+            <a:t>       </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
@@ -2158,13 +3701,16 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>con.Close()</a:t>
-          </a:r>
+            <a:t>conn.Close()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>     '4. </a:t>
+            <a:t>        '10. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
@@ -2179,17 +3725,20 @@
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> </a:t>
+            <a:t>    </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>con.Dispose()</a:t>
-          </a:r>
+            <a:t>conn.Dispose()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>     '</a:t>
+            <a:t>        '</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
@@ -2204,7 +3753,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> </a:t>
+            <a:t>    </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -2214,7 +3763,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>     '</a:t>
+            <a:t>        '</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
@@ -2226,6 +3775,3473 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
             <a:t>End Try</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009649" y="15868650"/>
+          <a:ext cx="6200776" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dim Rst As RDO.rdoResultset</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dim cnt As Integer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dim sqlcmd As String</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>’</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コマンド設定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sqlcmd = "SELECT COUNT (*) FROM " &amp; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テーブル名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>] &amp; " WHERE " &amp; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>抽出条件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RDO.rdoResultset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>オブジェクトの生成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Rst = Con.OpenResultset(sqlcmd, RDO.ResultsetTypeConstants.rdOpenKeyset,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                                                RDO.LockTypeConstants.rdConcurRowVer)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>抽出したレコード件数取得</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cnt = Rs.rdoColumns(0).Value</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="15840075"/>
+          <a:ext cx="6153150" cy="2495550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>’</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SqlCommand</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>クラスのインスタンス化</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Using cmd As New SqlClient.SqlCommand()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        cmd.Connection = conn</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        cmd.CommandType = System.Data.CommandType.Text</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>’</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>コマンド設定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cmd.CommandText =</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                            "SELECT COUNT(*) " &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                            "FROM " &amp; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テーブル名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> &amp; " " &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                            "WHERE " &amp; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>抽出条件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>           '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>抽出したレコード件数取得</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>           Dim cnt As Integer = cmd.ExecuteScalar()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>End Using</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>295276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="19954876"/>
+          <a:ext cx="6219825" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dim sqlcmd As String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dim w_str(100) As String</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テーブルデータ要素</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>’</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>レコード追加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>コマンド設定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sqlcmd = "INSERT INTO " &amp; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テーブル名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>] &amp; " VALUES("</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>For i = 1 To 10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    sqlcmd = sqlcmd &amp; w_str(i) &amp; ","</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Next i</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sqlcmd = sqlcmd &amp; w_str(11)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sqlcmd = sqlcmd &amp; ")"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>レコード追加コマンド実行</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Con.Execute(sqlcmd, RDO.OptionConstants.rdExecDirect)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="19954875"/>
+          <a:ext cx="6181725" cy="4057650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Using cmd As New SqlClient.SqlCommand()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cmd.Connection = conn</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>’</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>レコード追加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>コマンド設定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cmd.CommandText =</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            "INSERT INTO " &amp; "hm_kanri2" &amp; " (id, font_name, no, gm_no, gm_name) " &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            "VALUES(@id, @font_name, @no, @gm_no, @gm_name) "</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>             （名前付きパラメータを設定）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>名前付きパラメータに値を設定</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        cmd.Parameters.Add("@id", SqlDbType.VarChar, 2).Value = "HM"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        cmd.Parameters.Add("@font_name", SqlDbType.VarChar, 6).Value = "HE0333"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        cmd.Parameters.Add("@no", SqlDbType.VarChar, 2).Value = "00"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        cmd.Parameters.Add("@gm_no", SqlDbType.SmallInt).Value = 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        cmd.Parameters.Add("@gm_name", SqlDbType.VarChar, 10).Value =</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> "KO0333A0AT"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ’クエリーを実行</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        cmd.ExecuteNonQuery()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>End Using</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>295276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="25022176"/>
+          <a:ext cx="6219825" cy="2181224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dim sqlcmd As String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>’</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>レコード削除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>コマンド設定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sqlcmd = "DELETE FROM " &amp; [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テーブル名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>] &amp; " WHERE ( "</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sqlcmd = sqlcmd &amp; "id = 'KO' AND "</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sqlcmd = sqlcmd &amp; "no1 = '" &amp; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> &amp; "' AND "</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sqlcmd = sqlcmd &amp; "no2 = '" &amp; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> &amp; "' )"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>レコード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>削除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>コマンド実行</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Con.Execute(sqlcmd, RDO.OptionConstants.rdExecDirect)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="25269825"/>
+          <a:ext cx="6181725" cy="3819525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Using cmd As New SqlClient.SqlCommand()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cmd.Connection = conn</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>’</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>レコード削除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>コマンド設定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cmd.CommandText =</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>               "DELETE FROM " &amp; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"hm_kanri2"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> &amp; " WHERE " &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                "id = @id  AND  font_name = @font_name  AND  no = @no  AND  gm_no = @gm_no"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>              （名前付きパラメータを設定）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>名前付きパラメータに値を設定</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     cmd.Parameters.Add("@id", SqlDbType.VarChar, 2).Value = "HM"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     cmd.Parameters.Add("@font_name", SqlDbType.VarChar, 6).Value = "HE0333"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     cmd.Parameters.Add("@no", SqlDbType.VarChar, 2).Value = "00"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     cmd.Parameters.Add("@gm_no", SqlDbType.SmallInt).Value = 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     ’クエリーを実行</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     cmd.ExecuteNonQuery()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>End Using</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="30318075"/>
+          <a:ext cx="6219825" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dim sqlcmd As String</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>’</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>レコード更新</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>コマンド設定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sqlcmd = "UPDATE " &amp; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テーブル名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        sqlcmd = sqlcmd &amp; " SET flag_delete = " &amp; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>”</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        sqlcmd = sqlcmd &amp; " WHERE ( no1 = " &amp; "00" &amp; " AND"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        sqlcmd = sqlcmd &amp; " no2 = " &amp; "01" &amp; ")"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>レコード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>更新</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>コマンド実行</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Con.Execute(sqlcmd, RDO.OptionConstants.rdExecDirect)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601075" y="30337126"/>
+          <a:ext cx="6181725" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Using cmd As New SqlClient.SqlCommand()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cmd.Connection = conn</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>’</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>レコード削除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>コマンド設定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cmd.CommandText =</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            "UPDATE " &amp; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"hm_kanri2" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> &amp; " SET gm_name = @gm_name" &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            " WHERE " &amp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            "id = @id AND font_name = @font_name AND no = @no AND gm_no = @gm_no"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          （名前付きパラメータを設定）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>名前付きパラメータに値を設定</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     cmd.Parameters.Add("@id", SqlDbType.VarChar, 2).Value = "HM"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     cmd.Parameters.Add("@font_name", SqlDbType.VarChar, 6).Value = "HE0333"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     cmd.Parameters.Add("@no", SqlDbType.VarChar, 2).Value = "00"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     cmd.Parameters.Add("@gm_no", SqlDbType.SmallInt).Value = 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     cmd.Parameters.Add("@gm_name", SqlDbType.VarChar, 10).Value =</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> "KO0333A0AT"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     ’クエリーを実行</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     cmd.ExecuteNonQuery()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>End Using</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2236,7 +7252,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6733,10 +11749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R115"/>
+  <dimension ref="B2:R117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="S126" sqref="S126"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6976,48 +11992,30 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C105" s="1" t="s">
-        <v>89</v>
-      </c>
+    <row r="105" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="D106" t="s">
-        <v>90</v>
-      </c>
+    <row r="108" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="D108" s="1"/>
     </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="D108" t="s">
-        <v>92</v>
-      </c>
-      <c r="I108" t="s">
-        <v>93</v>
-      </c>
+    <row r="109" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="D110" s="2" t="s">
-        <v>94</v>
-      </c>
+    <row r="110" spans="3:17" ht="24" x14ac:dyDescent="0.4">
+      <c r="D110" s="6"/>
+      <c r="Q110" s="6"/>
     </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="D112" t="s">
-        <v>95</v>
-      </c>
+    <row r="111" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="Q111" s="7"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D113" t="s">
-        <v>96</v>
-      </c>
+    <row r="115" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q115" s="7"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D114" t="s">
-        <v>97</v>
-      </c>
+    <row r="116" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q116" s="8"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D115" t="s">
-        <v>98</v>
-      </c>
+    <row r="117" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q117" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7025,11 +12023,229 @@
     <hyperlink ref="E31" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:Q126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="O140" sqref="O140"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="3.875" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="5" width="3.75" customWidth="1"/>
+    <col min="6" max="6" width="2.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="D5" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="3:17" ht="24" x14ac:dyDescent="0.4">
+      <c r="D7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.4">
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D64" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D65" s="1"/>
+      <c r="E65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="4:17" ht="24" x14ac:dyDescent="0.4">
+      <c r="D67" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q67" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D80" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="E81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="4:17" ht="24" x14ac:dyDescent="0.4">
+      <c r="D83" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q83" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D102" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="E103" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="4:17" ht="24" x14ac:dyDescent="0.4">
+      <c r="D105" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q105" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="123" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D123" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="E124" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="4:17" ht="24" x14ac:dyDescent="0.4">
+      <c r="D126" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q126" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W61"/>
   <sheetViews>

--- a/外部設計/資料/技術資料.xlsx
+++ b/外部設計/資料/技術資料.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="10155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="VBプロジェクト" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="129">
   <si>
     <t>編集文字のピクチャー</t>
     <rPh sb="0" eb="2">
@@ -619,13 +619,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ムコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2. VS2019でビルドを通す。</t>
-    <rPh sb="14" eb="15">
-      <t>トオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1661,6 +1654,49 @@
     <t>テーブルのレコードを更新する</t>
     <rPh sb="10" eb="12">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. VS2019でビルドを通す。</t>
+    <rPh sb="14" eb="15">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. ソース管理プラグインの解除</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（1）Visual studioの[ツール]メニューから[オプション]を選択する。</t>
+    <rPh sb="36" eb="38">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（2）[ソース管理]-[プラグインの選択]の[現在のソース管理プラグイン]で「なし」を選択する。</t>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1820,13 +1856,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>339057</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1858,13 +1894,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>507546</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1896,13 +1932,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>227342</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1951,13 +1987,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>91086</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2006,13 +2042,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2060,13 +2096,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2115,13 +2151,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>197540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2153,13 +2189,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2171,6 +2207,153 @@
         <a:xfrm>
           <a:off x="8391525" y="17687925"/>
           <a:ext cx="790575" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600075" y="5581650"/>
+          <a:ext cx="3114675" cy="3486150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>518432</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="5610226"/>
+          <a:ext cx="5290457" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="右矢印 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="6772275"/>
+          <a:ext cx="981075" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -11749,10 +11932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R117"/>
+  <dimension ref="B2:R136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11769,22 +11952,22 @@
         <v>59</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="R4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.4">
@@ -11792,12 +11975,12 @@
         <v>57</v>
       </c>
       <c r="R5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.4">
       <c r="R6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.4">
@@ -11805,7 +11988,7 @@
         <v>43</v>
       </c>
       <c r="R7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.4">
@@ -11813,7 +11996,7 @@
         <v>44</v>
       </c>
       <c r="R8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.4">
@@ -11821,7 +12004,7 @@
         <v>45</v>
       </c>
       <c r="R9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.4">
@@ -11829,7 +12012,7 @@
         <v>46</v>
       </c>
       <c r="R10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.4">
@@ -11862,165 +12045,178 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="M23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B42" s="1"/>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C44" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="1"/>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C45" s="5"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="1"/>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D46" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C25" s="5" t="s">
-        <v>61</v>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E47" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C26" s="5"/>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D27" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E31" s="4" t="s">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E50" s="4" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E34" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D51" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E52" t="s">
-        <v>67</v>
-      </c>
+      <c r="D52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E53" t="s">
+      <c r="E53" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D70" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E74" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="E87" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="5:18" x14ac:dyDescent="0.4">
+      <c r="F88" t="s">
         <v>68</v>
       </c>
+      <c r="R88" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E55" s="2" t="s">
-        <v>71</v>
+    <row r="105" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D105" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="68" spans="5:18" x14ac:dyDescent="0.4">
-      <c r="E68" s="2" t="s">
-        <v>70</v>
+    <row r="106" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="E106" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="69" spans="5:18" x14ac:dyDescent="0.4">
-      <c r="F69" t="s">
-        <v>69</v>
-      </c>
-      <c r="R69" t="s">
+    <row r="107" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="F107" t="s">
         <v>72</v>
       </c>
+      <c r="N107" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="86" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D86" s="2" t="s">
-        <v>78</v>
-      </c>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C124" s="1"/>
     </row>
-    <row r="87" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="E87" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>80</v>
-      </c>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D127" s="1"/>
     </row>
-    <row r="88" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="F88" t="s">
-        <v>73</v>
-      </c>
-      <c r="N88" t="s">
-        <v>74</v>
-      </c>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D128" s="2"/>
     </row>
-    <row r="105" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="C105" s="1"/>
+    <row r="129" spans="4:17" ht="24" x14ac:dyDescent="0.4">
+      <c r="D129" s="6"/>
+      <c r="Q129" s="6"/>
     </row>
-    <row r="108" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="D108" s="1"/>
+    <row r="130" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="Q130" s="7"/>
     </row>
-    <row r="109" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="D109" s="2"/>
+    <row r="134" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="Q134" s="7"/>
     </row>
-    <row r="110" spans="3:17" ht="24" x14ac:dyDescent="0.4">
-      <c r="D110" s="6"/>
-      <c r="Q110" s="6"/>
+    <row r="135" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="Q135" s="8"/>
     </row>
-    <row r="111" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="Q111" s="7"/>
-    </row>
-    <row r="115" spans="17:17" x14ac:dyDescent="0.4">
-      <c r="Q115" s="7"/>
-    </row>
-    <row r="116" spans="17:17" x14ac:dyDescent="0.4">
-      <c r="Q116" s="8"/>
-    </row>
-    <row r="117" spans="17:17" x14ac:dyDescent="0.4">
-      <c r="Q117" s="8"/>
+    <row r="136" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="Q136" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E31" r:id="rId1"/>
+    <hyperlink ref="E50" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
@@ -12032,7 +12228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:Q126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O140" sqref="O140"/>
     </sheetView>
   </sheetViews>
@@ -12047,17 +12243,17 @@
   <sheetData>
     <row r="2" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.4">
@@ -12065,176 +12261,176 @@
     </row>
     <row r="7" spans="3:17" ht="24" x14ac:dyDescent="0.4">
       <c r="D7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.4">
       <c r="E10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.4">
       <c r="E13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.4">
       <c r="E14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.4">
       <c r="E15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.4">
       <c r="E16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D64" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="4:17" x14ac:dyDescent="0.4">
       <c r="D65" s="1"/>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="4:17" ht="24" x14ac:dyDescent="0.4">
       <c r="D67" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q67" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="Q67" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="80" spans="4:17" x14ac:dyDescent="0.4">
       <c r="D80" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="4:17" x14ac:dyDescent="0.4">
       <c r="E81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="4:17" ht="24" x14ac:dyDescent="0.4">
       <c r="D83" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q83" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="Q83" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.4">
       <c r="D102" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.4">
       <c r="E103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="4:17" ht="24" x14ac:dyDescent="0.4">
       <c r="D105" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q105" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="Q105" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="123" spans="4:17" x14ac:dyDescent="0.4">
       <c r="D123" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="4:17" x14ac:dyDescent="0.4">
       <c r="E124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="4:17" ht="24" x14ac:dyDescent="0.4">
       <c r="D126" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q126" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="Q126" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
